--- a/INTLINE/data/142/STANOR/13332 Employment and unemployment for persons aged 15-74.xlsx
+++ b/INTLINE/data/142/STANOR/13332 Employment and unemployment for persons aged 15-74.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <x:si>
     <x:t>13332: Employment, unemployment, labour force and  break and man-weeks worked for persons aged 15-74, by contents, month, sex and age</x:t>
   </x:si>
@@ -595,6 +595,12 @@
     <x:t>2022M01</x:t>
   </x:si>
   <x:si>
+    <x:t>2022M02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M03</x:t>
+  </x:si>
+  <x:si>
     <x:t>Both sexes</x:t>
   </x:si>
   <x:si>
@@ -634,7 +640,7 @@
     <x:t>Labour force, seasonally adjusted (1 000 persons):</x:t>
   </x:si>
   <x:si>
-    <x:t>20220324 08:00</x:t>
+    <x:t>20220525 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Total employment (1 000 persons), seasonally adjusted:</x:t>
@@ -1134,21 +1140,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:GK136"/>
+  <x:dimension ref="A1:GM136"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="193" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="195" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:193">
+    <x:row r="1" spans="1:195">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:193">
+    <x:row r="3" spans="1:195">
       <x:c r="B3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1725,1166 +1731,1184 @@
       <x:c r="GK3" s="2" t="s">
         <x:v>192</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:193">
+      <x:c r="GL3" s="2" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="GM3" s="2" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:195">
       <x:c r="B4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="G4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="H4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="I4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="J4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="K4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="L4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="M4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="N4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="O4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="P4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="Q4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="R4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="S4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="T4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="U4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="V4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="W4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="X4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="Y4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="Z4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AA4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AB4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AC4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AD4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AE4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AF4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AG4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AH4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AI4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AJ4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AK4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AL4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AM4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AN4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AO4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AP4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AQ4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AR4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AS4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AT4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AU4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AV4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AW4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AX4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AY4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="AZ4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BA4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BB4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BC4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BD4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BE4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BF4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BG4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BH4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BI4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BJ4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BK4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BL4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BM4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BN4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BO4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BP4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BQ4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BR4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BS4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BT4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BU4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BV4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BW4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BX4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BY4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="BZ4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CA4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CB4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CC4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CD4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CE4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CF4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CG4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CH4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CI4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CJ4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CK4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CL4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CM4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CN4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CO4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CP4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CQ4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CR4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CS4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CT4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CU4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CV4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CW4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CX4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CY4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="CZ4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DA4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DB4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DC4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DD4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DE4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DF4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DG4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DH4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DI4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DJ4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DK4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DL4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DM4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DN4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DO4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DP4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DQ4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DR4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DS4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DT4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DU4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DV4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DW4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DX4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DY4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="DZ4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="EA4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="EB4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="EC4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="ED4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="EE4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="EF4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="EG4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="EH4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="EI4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="EJ4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="EK4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="EL4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="EM4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="EN4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="EO4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="EP4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="EQ4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="ER4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="ES4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="ET4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="EU4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="EV4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="EW4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="EX4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="EY4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="EZ4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FA4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FB4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FC4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FD4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FE4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FF4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FG4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FH4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FI4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FJ4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FK4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FL4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FM4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FN4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FO4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FP4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FQ4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FR4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FS4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FT4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FU4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FV4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FW4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FX4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FY4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="FZ4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="GA4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="GB4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="GC4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="GD4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="GE4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="GF4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="GG4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="GH4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="GI4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="GJ4" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="GK4" s="2" t="s">
-        <x:v>193</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:193">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="GL4" s="2" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="GM4" s="2" t="s">
+        <x:v>195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:195">
       <x:c r="B5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="J5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="K5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="L5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="M5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="O5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="P5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="Q5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="R5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="S5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="T5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="U5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="V5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="W5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="X5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="Y5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="Z5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AA5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AB5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AC5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AD5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AE5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AF5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AG5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AH5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AI5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AJ5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AK5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AL5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AM5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AN5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AO5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AP5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AQ5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AR5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AS5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AT5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AU5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AV5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AW5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AX5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AY5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AZ5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BA5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BB5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BC5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BD5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BE5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BF5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BG5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BH5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BI5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BJ5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BK5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BL5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BM5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BN5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BO5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BP5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BQ5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BR5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BS5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BT5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BU5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BV5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BW5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BX5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BY5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="BZ5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CA5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CB5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CC5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CD5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CE5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CF5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CG5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CH5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CI5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CJ5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CK5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CL5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CM5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CN5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CO5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CP5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CQ5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CR5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CS5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CT5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CU5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CV5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CW5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CX5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CY5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="CZ5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DA5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DB5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DC5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DD5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DE5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DF5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DG5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DH5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DI5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DJ5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DK5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DL5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DM5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DN5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DO5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DP5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DQ5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DR5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DS5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DT5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DU5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DV5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DW5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DX5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DY5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="DZ5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="EA5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="EB5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="EC5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="ED5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="EE5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="EF5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="EG5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="EH5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="EI5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="EJ5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="EK5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="EL5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="EM5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="EN5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="EO5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="EP5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="EQ5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="ER5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="ES5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="ET5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="EU5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="EV5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="EW5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="EX5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="EY5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="EZ5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FA5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FB5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FC5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FD5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FE5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FF5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FG5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FH5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FI5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FJ5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FK5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FL5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FM5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FN5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FO5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FP5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FQ5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FR5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FS5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FT5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FU5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FV5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FW5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FX5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FY5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="FZ5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="GA5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="GB5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="GC5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="GD5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="GE5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="GF5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="GG5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="GH5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="GI5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="GJ5" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="GK5" s="2" t="s">
-        <x:v>194</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:193">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="GL5" s="2" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="GM5" s="2" t="s">
+        <x:v>196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:195">
       <x:c r="A6" s="2" t="s">
-        <x:v>195</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B6" s="3" t="n">
         <x:v>2413</x:v>
@@ -3175,7 +3199,7 @@
         <x:v>2709</x:v>
       </x:c>
       <x:c r="CT6" s="3" t="n">
-        <x:v>2707</x:v>
+        <x:v>2708</x:v>
       </x:c>
       <x:c r="CU6" s="3" t="n">
         <x:v>2717</x:v>
@@ -3193,7 +3217,7 @@
         <x:v>2723</x:v>
       </x:c>
       <x:c r="CZ6" s="3" t="n">
-        <x:v>2728</x:v>
+        <x:v>2727</x:v>
       </x:c>
       <x:c r="DA6" s="3" t="n">
         <x:v>2727</x:v>
@@ -3208,10 +3232,10 @@
         <x:v>2748</x:v>
       </x:c>
       <x:c r="DE6" s="3" t="n">
-        <x:v>2757</x:v>
+        <x:v>2758</x:v>
       </x:c>
       <x:c r="DF6" s="3" t="n">
-        <x:v>2757</x:v>
+        <x:v>2758</x:v>
       </x:c>
       <x:c r="DG6" s="3" t="n">
         <x:v>2758</x:v>
@@ -3220,7 +3244,7 @@
         <x:v>2763</x:v>
       </x:c>
       <x:c r="DI6" s="3" t="n">
-        <x:v>2772</x:v>
+        <x:v>2771</x:v>
       </x:c>
       <x:c r="DJ6" s="3" t="n">
         <x:v>2768</x:v>
@@ -3247,7 +3271,7 @@
         <x:v>2790</x:v>
       </x:c>
       <x:c r="DR6" s="3" t="n">
-        <x:v>2782</x:v>
+        <x:v>2783</x:v>
       </x:c>
       <x:c r="DS6" s="3" t="n">
         <x:v>2778</x:v>
@@ -3262,13 +3286,13 @@
         <x:v>2770</x:v>
       </x:c>
       <x:c r="DW6" s="3" t="n">
-        <x:v>2774</x:v>
+        <x:v>2773</x:v>
       </x:c>
       <x:c r="DX6" s="3" t="n">
         <x:v>2776</x:v>
       </x:c>
       <x:c r="DY6" s="3" t="n">
-        <x:v>2781</x:v>
+        <x:v>2780</x:v>
       </x:c>
       <x:c r="DZ6" s="3" t="n">
         <x:v>2772</x:v>
@@ -3319,13 +3343,13 @@
         <x:v>2773</x:v>
       </x:c>
       <x:c r="EP6" s="3" t="n">
-        <x:v>2786</x:v>
+        <x:v>2787</x:v>
       </x:c>
       <x:c r="EQ6" s="3" t="n">
         <x:v>2790</x:v>
       </x:c>
       <x:c r="ER6" s="3" t="n">
-        <x:v>2786</x:v>
+        <x:v>2787</x:v>
       </x:c>
       <x:c r="ES6" s="3" t="n">
         <x:v>2796</x:v>
@@ -3355,7 +3379,7 @@
         <x:v>2810</x:v>
       </x:c>
       <x:c r="FB6" s="3" t="n">
-        <x:v>2818</x:v>
+        <x:v>2819</x:v>
       </x:c>
       <x:c r="FC6" s="3" t="n">
         <x:v>2819</x:v>
@@ -3364,16 +3388,16 @@
         <x:v>2809</x:v>
       </x:c>
       <x:c r="FE6" s="3" t="n">
-        <x:v>2806</x:v>
+        <x:v>2805</x:v>
       </x:c>
       <x:c r="FF6" s="3" t="n">
         <x:v>2825</x:v>
       </x:c>
       <x:c r="FG6" s="3" t="n">
-        <x:v>2839</x:v>
+        <x:v>2838</x:v>
       </x:c>
       <x:c r="FH6" s="3" t="n">
-        <x:v>2851</x:v>
+        <x:v>2850</x:v>
       </x:c>
       <x:c r="FI6" s="3" t="n">
         <x:v>2847</x:v>
@@ -3391,7 +3415,7 @@
         <x:v>2854</x:v>
       </x:c>
       <x:c r="FN6" s="3" t="n">
-        <x:v>2847</x:v>
+        <x:v>2848</x:v>
       </x:c>
       <x:c r="FO6" s="3" t="n">
         <x:v>2833</x:v>
@@ -3400,25 +3424,25 @@
         <x:v>2831</x:v>
       </x:c>
       <x:c r="FQ6" s="3" t="n">
-        <x:v>2823</x:v>
+        <x:v>2821</x:v>
       </x:c>
       <x:c r="FR6" s="3" t="n">
-        <x:v>2835</x:v>
+        <x:v>2834</x:v>
       </x:c>
       <x:c r="FS6" s="3" t="n">
         <x:v>2833</x:v>
       </x:c>
       <x:c r="FT6" s="3" t="n">
-        <x:v>2843</x:v>
+        <x:v>2842</x:v>
       </x:c>
       <x:c r="FU6" s="3" t="n">
-        <x:v>2852</x:v>
+        <x:v>2851</x:v>
       </x:c>
       <x:c r="FV6" s="3" t="n">
         <x:v>2854</x:v>
       </x:c>
       <x:c r="FW6" s="3" t="n">
-        <x:v>2853</x:v>
+        <x:v>2854</x:v>
       </x:c>
       <x:c r="FX6" s="3" t="n">
         <x:v>2836</x:v>
@@ -3427,19 +3451,19 @@
         <x:v>2837</x:v>
       </x:c>
       <x:c r="FZ6" s="3" t="n">
-        <x:v>2828</x:v>
+        <x:v>2830</x:v>
       </x:c>
       <x:c r="GA6" s="3" t="n">
-        <x:v>2842</x:v>
+        <x:v>2843</x:v>
       </x:c>
       <x:c r="GB6" s="3" t="n">
         <x:v>2852</x:v>
       </x:c>
       <x:c r="GC6" s="3" t="n">
-        <x:v>2880</x:v>
+        <x:v>2879</x:v>
       </x:c>
       <x:c r="GD6" s="3" t="n">
-        <x:v>2892</x:v>
+        <x:v>2891</x:v>
       </x:c>
       <x:c r="GE6" s="3" t="n">
         <x:v>2893</x:v>
@@ -3462,10 +3486,16 @@
       <x:c r="GK6" s="3" t="n">
         <x:v>2906</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:193">
+      <x:c r="GL6" s="3" t="n">
+        <x:v>2912</x:v>
+      </x:c>
+      <x:c r="GM6" s="3" t="n">
+        <x:v>2923</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:195">
       <x:c r="A7" s="2" t="s">
-        <x:v>196</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B7" s="3" t="n">
         <x:v>2319</x:v>
@@ -3867,7 +3897,7 @@
         <x:v>2640</x:v>
       </x:c>
       <x:c r="EE7" s="3" t="n">
-        <x:v>2639</x:v>
+        <x:v>2640</x:v>
       </x:c>
       <x:c r="EF7" s="3" t="n">
         <x:v>2641</x:v>
@@ -3879,7 +3909,7 @@
         <x:v>2637</x:v>
       </x:c>
       <x:c r="EI7" s="3" t="n">
-        <x:v>2644</x:v>
+        <x:v>2643</x:v>
       </x:c>
       <x:c r="EJ7" s="3" t="n">
         <x:v>2647</x:v>
@@ -3900,7 +3930,7 @@
         <x:v>2663</x:v>
       </x:c>
       <x:c r="EP7" s="3" t="n">
-        <x:v>2678</x:v>
+        <x:v>2679</x:v>
       </x:c>
       <x:c r="EQ7" s="3" t="n">
         <x:v>2680</x:v>
@@ -3936,10 +3966,10 @@
         <x:v>2703</x:v>
       </x:c>
       <x:c r="FB7" s="3" t="n">
-        <x:v>2711</x:v>
+        <x:v>2712</x:v>
       </x:c>
       <x:c r="FC7" s="3" t="n">
-        <x:v>2718</x:v>
+        <x:v>2719</x:v>
       </x:c>
       <x:c r="FD7" s="3" t="n">
         <x:v>2717</x:v>
@@ -3972,7 +4002,7 @@
         <x:v>2748</x:v>
       </x:c>
       <x:c r="FN7" s="3" t="n">
-        <x:v>2746</x:v>
+        <x:v>2747</x:v>
       </x:c>
       <x:c r="FO7" s="3" t="n">
         <x:v>2732</x:v>
@@ -3981,7 +4011,7 @@
         <x:v>2716</x:v>
       </x:c>
       <x:c r="FQ7" s="3" t="n">
-        <x:v>2693</x:v>
+        <x:v>2692</x:v>
       </x:c>
       <x:c r="FR7" s="3" t="n">
         <x:v>2688</x:v>
@@ -4002,13 +4032,13 @@
         <x:v>2710</x:v>
       </x:c>
       <x:c r="FX7" s="3" t="n">
-        <x:v>2698</x:v>
+        <x:v>2697</x:v>
       </x:c>
       <x:c r="FY7" s="3" t="n">
         <x:v>2699</x:v>
       </x:c>
       <x:c r="FZ7" s="3" t="n">
-        <x:v>2694</x:v>
+        <x:v>2695</x:v>
       </x:c>
       <x:c r="GA7" s="3" t="n">
         <x:v>2706</x:v>
@@ -4017,7 +4047,7 @@
         <x:v>2711</x:v>
       </x:c>
       <x:c r="GC7" s="3" t="n">
-        <x:v>2736</x:v>
+        <x:v>2735</x:v>
       </x:c>
       <x:c r="GD7" s="3" t="n">
         <x:v>2750</x:v>
@@ -4043,10 +4073,16 @@
       <x:c r="GK7" s="3" t="n">
         <x:v>2814</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:193">
+      <x:c r="GL7" s="3" t="n">
+        <x:v>2821</x:v>
+      </x:c>
+      <x:c r="GM7" s="3" t="n">
+        <x:v>2837</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:195">
       <x:c r="A8" s="2" t="s">
-        <x:v>197</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B8" s="3" t="n">
         <x:v>1792</x:v>
@@ -4130,7 +4166,7 @@
         <x:v>1918</x:v>
       </x:c>
       <x:c r="AC8" s="3" t="n">
-        <x:v>1921</x:v>
+        <x:v>1920</x:v>
       </x:c>
       <x:c r="AD8" s="3" t="n">
         <x:v>1919</x:v>
@@ -4175,7 +4211,7 @@
         <x:v>1910</x:v>
       </x:c>
       <x:c r="AR8" s="3" t="n">
-        <x:v>1896</x:v>
+        <x:v>1897</x:v>
       </x:c>
       <x:c r="AS8" s="3" t="n">
         <x:v>1875</x:v>
@@ -4199,7 +4235,7 @@
         <x:v>1876</x:v>
       </x:c>
       <x:c r="AZ8" s="3" t="n">
-        <x:v>1890</x:v>
+        <x:v>1889</x:v>
       </x:c>
       <x:c r="BA8" s="3" t="n">
         <x:v>1881</x:v>
@@ -4208,13 +4244,13 @@
         <x:v>1873</x:v>
       </x:c>
       <x:c r="BC8" s="3" t="n">
-        <x:v>1861</x:v>
+        <x:v>1862</x:v>
       </x:c>
       <x:c r="BD8" s="3" t="n">
-        <x:v>1866</x:v>
+        <x:v>1867</x:v>
       </x:c>
       <x:c r="BE8" s="3" t="n">
-        <x:v>1885</x:v>
+        <x:v>1886</x:v>
       </x:c>
       <x:c r="BF8" s="3" t="n">
         <x:v>1894</x:v>
@@ -4223,7 +4259,7 @@
         <x:v>1897</x:v>
       </x:c>
       <x:c r="BH8" s="3" t="n">
-        <x:v>1896</x:v>
+        <x:v>1895</x:v>
       </x:c>
       <x:c r="BI8" s="3" t="n">
         <x:v>1906</x:v>
@@ -4262,13 +4298,13 @@
         <x:v>1967</x:v>
       </x:c>
       <x:c r="BU8" s="3" t="n">
-        <x:v>1969</x:v>
+        <x:v>1968</x:v>
       </x:c>
       <x:c r="BV8" s="3" t="n">
         <x:v>1955</x:v>
       </x:c>
       <x:c r="BW8" s="3" t="n">
-        <x:v>1969</x:v>
+        <x:v>1968</x:v>
       </x:c>
       <x:c r="BX8" s="3" t="n">
         <x:v>1980</x:v>
@@ -4310,7 +4346,7 @@
         <x:v>1952</x:v>
       </x:c>
       <x:c r="CK8" s="3" t="n">
-        <x:v>1954</x:v>
+        <x:v>1953</x:v>
       </x:c>
       <x:c r="CL8" s="3" t="n">
         <x:v>1961</x:v>
@@ -4331,7 +4367,7 @@
         <x:v>1988</x:v>
       </x:c>
       <x:c r="CR8" s="3" t="n">
-        <x:v>2003</x:v>
+        <x:v>2002</x:v>
       </x:c>
       <x:c r="CS8" s="3" t="n">
         <x:v>1998</x:v>
@@ -4346,13 +4382,13 @@
         <x:v>1997</x:v>
       </x:c>
       <x:c r="CW8" s="3" t="n">
-        <x:v>2003</x:v>
+        <x:v>2004</x:v>
       </x:c>
       <x:c r="CX8" s="3" t="n">
         <x:v>1989</x:v>
       </x:c>
       <x:c r="CY8" s="3" t="n">
-        <x:v>2023</x:v>
+        <x:v>2024</x:v>
       </x:c>
       <x:c r="CZ8" s="3" t="n">
         <x:v>2005</x:v>
@@ -4373,16 +4409,16 @@
         <x:v>1983</x:v>
       </x:c>
       <x:c r="DF8" s="3" t="n">
-        <x:v>1982</x:v>
+        <x:v>1981</x:v>
       </x:c>
       <x:c r="DG8" s="3" t="n">
-        <x:v>1993</x:v>
+        <x:v>1994</x:v>
       </x:c>
       <x:c r="DH8" s="3" t="n">
         <x:v>1995</x:v>
       </x:c>
       <x:c r="DI8" s="3" t="n">
-        <x:v>1997</x:v>
+        <x:v>1998</x:v>
       </x:c>
       <x:c r="DJ8" s="3" t="n">
         <x:v>2005</x:v>
@@ -4415,7 +4451,7 @@
         <x:v>1990</x:v>
       </x:c>
       <x:c r="DT8" s="3" t="n">
-        <x:v>1986</x:v>
+        <x:v>1987</x:v>
       </x:c>
       <x:c r="DU8" s="3" t="n">
         <x:v>1982</x:v>
@@ -4433,10 +4469,10 @@
         <x:v>1995</x:v>
       </x:c>
       <x:c r="DZ8" s="3" t="n">
-        <x:v>2015</x:v>
+        <x:v>2014</x:v>
       </x:c>
       <x:c r="EA8" s="3" t="n">
-        <x:v>2017</x:v>
+        <x:v>2016</x:v>
       </x:c>
       <x:c r="EB8" s="3" t="n">
         <x:v>2015</x:v>
@@ -4445,7 +4481,7 @@
         <x:v>2017</x:v>
       </x:c>
       <x:c r="ED8" s="3" t="n">
-        <x:v>2014</x:v>
+        <x:v>2013</x:v>
       </x:c>
       <x:c r="EE8" s="3" t="n">
         <x:v>2005</x:v>
@@ -4454,7 +4490,7 @@
         <x:v>2006</x:v>
       </x:c>
       <x:c r="EG8" s="3" t="n">
-        <x:v>2007</x:v>
+        <x:v>2008</x:v>
       </x:c>
       <x:c r="EH8" s="3" t="n">
         <x:v>1998</x:v>
@@ -4475,7 +4511,7 @@
         <x:v>1999</x:v>
       </x:c>
       <x:c r="EN8" s="3" t="n">
-        <x:v>2007</x:v>
+        <x:v>2006</x:v>
       </x:c>
       <x:c r="EO8" s="3" t="n">
         <x:v>1999</x:v>
@@ -4487,13 +4523,13 @@
         <x:v>2025</x:v>
       </x:c>
       <x:c r="ER8" s="3" t="n">
-        <x:v>2021</x:v>
+        <x:v>2022</x:v>
       </x:c>
       <x:c r="ES8" s="3" t="n">
         <x:v>2031</x:v>
       </x:c>
       <x:c r="ET8" s="3" t="n">
-        <x:v>2025</x:v>
+        <x:v>2024</x:v>
       </x:c>
       <x:c r="EU8" s="3" t="n">
         <x:v>2039</x:v>
@@ -4508,25 +4544,25 @@
         <x:v>2060</x:v>
       </x:c>
       <x:c r="EY8" s="3" t="n">
-        <x:v>2052</x:v>
+        <x:v>2051</x:v>
       </x:c>
       <x:c r="EZ8" s="3" t="n">
-        <x:v>2057</x:v>
+        <x:v>2056</x:v>
       </x:c>
       <x:c r="FA8" s="3" t="n">
         <x:v>2056</x:v>
       </x:c>
       <x:c r="FB8" s="3" t="n">
-        <x:v>2056</x:v>
+        <x:v>2055</x:v>
       </x:c>
       <x:c r="FC8" s="3" t="n">
-        <x:v>2038</x:v>
+        <x:v>2039</x:v>
       </x:c>
       <x:c r="FD8" s="3" t="n">
-        <x:v>2042</x:v>
+        <x:v>2043</x:v>
       </x:c>
       <x:c r="FE8" s="3" t="n">
-        <x:v>2042</x:v>
+        <x:v>2043</x:v>
       </x:c>
       <x:c r="FF8" s="3" t="n">
         <x:v>2054</x:v>
@@ -4547,22 +4583,22 @@
         <x:v>2051</x:v>
       </x:c>
       <x:c r="FL8" s="3" t="n">
-        <x:v>2045</x:v>
+        <x:v>2044</x:v>
       </x:c>
       <x:c r="FM8" s="3" t="n">
-        <x:v>2053</x:v>
+        <x:v>2052</x:v>
       </x:c>
       <x:c r="FN8" s="3" t="n">
         <x:v>1987</x:v>
       </x:c>
       <x:c r="FO8" s="3" t="n">
-        <x:v>1932</x:v>
+        <x:v>1933</x:v>
       </x:c>
       <x:c r="FP8" s="3" t="n">
-        <x:v>1881</x:v>
+        <x:v>1882</x:v>
       </x:c>
       <x:c r="FQ8" s="3" t="n">
-        <x:v>1934</x:v>
+        <x:v>1936</x:v>
       </x:c>
       <x:c r="FR8" s="3" t="n">
         <x:v>1989</x:v>
@@ -4589,25 +4625,25 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="FZ8" s="3" t="n">
-        <x:v>2027</x:v>
+        <x:v>2026</x:v>
       </x:c>
       <x:c r="GA8" s="3" t="n">
-        <x:v>2047</x:v>
+        <x:v>2048</x:v>
       </x:c>
       <x:c r="GB8" s="3" t="n">
         <x:v>2065</x:v>
       </x:c>
       <x:c r="GC8" s="3" t="n">
-        <x:v>2078</x:v>
+        <x:v>2079</x:v>
       </x:c>
       <x:c r="GD8" s="3" t="n">
-        <x:v>2054</x:v>
+        <x:v>2053</x:v>
       </x:c>
       <x:c r="GE8" s="3" t="n">
         <x:v>2052</x:v>
       </x:c>
       <x:c r="GF8" s="3" t="n">
-        <x:v>2070</x:v>
+        <x:v>2071</x:v>
       </x:c>
       <x:c r="GG8" s="3" t="n">
         <x:v>2092</x:v>
@@ -4624,10 +4660,16 @@
       <x:c r="GK8" s="3" t="n">
         <x:v>2035</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:193">
+      <x:c r="GL8" s="3" t="n">
+        <x:v>2057</x:v>
+      </x:c>
+      <x:c r="GM8" s="3" t="n">
+        <x:v>2080</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:195">
       <x:c r="A9" s="2" t="s">
-        <x:v>198</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B9" s="3" t="n">
         <x:v>94</x:v>
@@ -4759,7 +4801,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="AS9" s="3" t="n">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="AT9" s="3" t="n">
         <x:v>88</x:v>
@@ -4921,7 +4963,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="CU9" s="3" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="CV9" s="3" t="n">
         <x:v>93</x:v>
@@ -4930,7 +4972,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="CX9" s="3" t="n">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="CY9" s="3" t="n">
         <x:v>97</x:v>
@@ -4987,7 +5029,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="DQ9" s="3" t="n">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="DR9" s="3" t="n">
         <x:v>138</x:v>
@@ -5026,10 +5068,10 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="ED9" s="3" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="EE9" s="3" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="EF9" s="3" t="n">
         <x:v>125</x:v>
@@ -5056,7 +5098,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="EN9" s="3" t="n">
-        <x:v>112</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="EO9" s="3" t="n">
         <x:v>111</x:v>
@@ -5101,13 +5143,13 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="FC9" s="3" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="FD9" s="3" t="n">
         <x:v>92</x:v>
       </x:c>
       <x:c r="FE9" s="3" t="n">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="FF9" s="3" t="n">
         <x:v>102</x:v>
@@ -5143,7 +5185,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="FQ9" s="3" t="n">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="FR9" s="3" t="n">
         <x:v>147</x:v>
@@ -5164,13 +5206,13 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="FX9" s="3" t="n">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="FY9" s="3" t="n">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="FZ9" s="3" t="n">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="GA9" s="3" t="n">
         <x:v>137</x:v>
@@ -5179,7 +5221,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="GC9" s="3" t="n">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="GD9" s="3" t="n">
         <x:v>142</x:v>
@@ -5203,12 +5245,18 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="GK9" s="3" t="n">
-        <x:v>92</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:193">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="GL9" s="3" t="n">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="GM9" s="3" t="n">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:195">
       <x:c r="A10" s="2" t="s">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B10" s="4" t="n">
         <x:v>3.9</x:v>
@@ -5460,7 +5508,7 @@
         <x:v>3.5</x:v>
       </x:c>
       <x:c r="CG10" s="4" t="n">
-        <x:v>3.6</x:v>
+        <x:v>3.7</x:v>
       </x:c>
       <x:c r="CH10" s="4" t="n">
         <x:v>3.7</x:v>
@@ -5562,7 +5610,7 @@
         <x:v>4.6</x:v>
       </x:c>
       <x:c r="DO10" s="4" t="n">
-        <x:v>4.8</x:v>
+        <x:v>4.7</x:v>
       </x:c>
       <x:c r="DP10" s="4" t="n">
         <x:v>4.8</x:v>
@@ -5646,7 +5694,7 @@
         <x:v>3.9</x:v>
       </x:c>
       <x:c r="EQ10" s="4" t="n">
-        <x:v>3.9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="ER10" s="4" t="n">
         <x:v>3.8</x:v>
@@ -5751,13 +5799,13 @@
         <x:v>4.9</x:v>
       </x:c>
       <x:c r="FZ10" s="4" t="n">
-        <x:v>4.7</x:v>
+        <x:v>4.8</x:v>
       </x:c>
       <x:c r="GA10" s="4" t="n">
         <x:v>4.8</x:v>
       </x:c>
       <x:c r="GB10" s="4" t="n">
-        <x:v>5</x:v>
+        <x:v>4.9</x:v>
       </x:c>
       <x:c r="GC10" s="4" t="n">
         <x:v>5</x:v>
@@ -5784,12 +5832,18 @@
         <x:v>3.3</x:v>
       </x:c>
       <x:c r="GK10" s="4" t="n">
-        <x:v>3.2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:193">
+        <x:v>3.1</x:v>
+      </x:c>
+      <x:c r="GL10" s="4" t="n">
+        <x:v>3.1</x:v>
+      </x:c>
+      <x:c r="GM10" s="4" t="n">
+        <x:v>2.9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:195">
       <x:c r="A11" s="2" t="s">
-        <x:v>200</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B11" s="3" t="n">
         <x:v>3382</x:v>
@@ -6341,13 +6395,13 @@
         <x:v>4044</x:v>
       </x:c>
       <x:c r="GC11" s="3" t="n">
-        <x:v>4043</x:v>
+        <x:v>4042</x:v>
       </x:c>
       <x:c r="GD11" s="3" t="n">
         <x:v>4043</x:v>
       </x:c>
       <x:c r="GE11" s="3" t="n">
-        <x:v>4045</x:v>
+        <x:v>4044</x:v>
       </x:c>
       <x:c r="GF11" s="3" t="n">
         <x:v>4047</x:v>
@@ -6367,10 +6421,16 @@
       <x:c r="GK11" s="3" t="n">
         <x:v>4062</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:193">
+      <x:c r="GL11" s="3" t="n">
+        <x:v>4065</x:v>
+      </x:c>
+      <x:c r="GM11" s="3" t="n">
+        <x:v>4067</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:195">
       <x:c r="A12" s="2" t="s">
-        <x:v>201</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B12" s="4" t="n">
         <x:v>68.6</x:v>
@@ -6877,7 +6937,7 @@
         <x:v>68.2</x:v>
       </x:c>
       <x:c r="FN12" s="4" t="n">
-        <x:v>68.1</x:v>
+        <x:v>68.2</x:v>
       </x:c>
       <x:c r="FO12" s="4" t="n">
         <x:v>67.8</x:v>
@@ -6928,7 +6988,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="GE12" s="4" t="n">
-        <x:v>68.4</x:v>
+        <x:v>68.5</x:v>
       </x:c>
       <x:c r="GF12" s="4" t="n">
         <x:v>68.5</x:v>
@@ -6948,10 +7008,16 @@
       <x:c r="GK12" s="4" t="n">
         <x:v>69.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="13" spans="1:193">
+      <x:c r="GL12" s="4" t="n">
+        <x:v>69.4</x:v>
+      </x:c>
+      <x:c r="GM12" s="4" t="n">
+        <x:v>69.8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:195">
       <x:c r="A13" s="2" t="s">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B13" s="4" t="n">
         <x:v>71.4</x:v>
@@ -7302,7 +7368,7 @@
         <x:v>70.8</x:v>
       </x:c>
       <x:c r="DN13" s="4" t="n">
-        <x:v>70.8</x:v>
+        <x:v>70.7</x:v>
       </x:c>
       <x:c r="DO13" s="4" t="n">
         <x:v>70.7</x:v>
@@ -7350,7 +7416,7 @@
         <x:v>69.4</x:v>
       </x:c>
       <x:c r="ED13" s="4" t="n">
-        <x:v>69.7</x:v>
+        <x:v>69.8</x:v>
       </x:c>
       <x:c r="EE13" s="4" t="n">
         <x:v>69.8</x:v>
@@ -7422,7 +7488,7 @@
         <x:v>70.2</x:v>
       </x:c>
       <x:c r="FB13" s="4" t="n">
-        <x:v>70.3</x:v>
+        <x:v>70.4</x:v>
       </x:c>
       <x:c r="FC13" s="4" t="n">
         <x:v>70.3</x:v>
@@ -7440,7 +7506,7 @@
         <x:v>70.7</x:v>
       </x:c>
       <x:c r="FH13" s="4" t="n">
-        <x:v>71</x:v>
+        <x:v>70.9</x:v>
       </x:c>
       <x:c r="FI13" s="4" t="n">
         <x:v>70.8</x:v>
@@ -7458,7 +7524,7 @@
         <x:v>70.8</x:v>
       </x:c>
       <x:c r="FN13" s="4" t="n">
-        <x:v>70.6</x:v>
+        <x:v>70.7</x:v>
       </x:c>
       <x:c r="FO13" s="4" t="n">
         <x:v>70.3</x:v>
@@ -7529,545 +7595,551 @@
       <x:c r="GK13" s="4" t="n">
         <x:v>71.5</x:v>
       </x:c>
-    </x:row>
-    <x:row r="15" spans="1:193">
+      <x:c r="GL13" s="4" t="n">
+        <x:v>71.6</x:v>
+      </x:c>
+      <x:c r="GM13" s="4" t="n">
+        <x:v>71.9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:195">
       <x:c r="A15" s="5" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:195">
+      <x:c r="A17" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:195">
+      <x:c r="A18" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:195">
+      <x:c r="A19" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:195">
+      <x:c r="A20" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:195">
+      <x:c r="A21" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:195">
+      <x:c r="A22" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:195">
+      <x:c r="A23" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:195">
+      <x:c r="A24" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:195">
+      <x:c r="A25" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:195">
+      <x:c r="A26" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:195">
+      <x:c r="A27" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:195">
+      <x:c r="A28" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:195">
+      <x:c r="A29" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:195">
+      <x:c r="A30" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:195">
+      <x:c r="A31" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:195">
+      <x:c r="A32" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:195">
+      <x:c r="A33" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:195">
+      <x:c r="A35" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:195">
+      <x:c r="A36" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:195">
+      <x:c r="A38" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:195">
+      <x:c r="A39" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:195">
+      <x:c r="A40" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:195">
+      <x:c r="A41" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:195">
+      <x:c r="A42" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:195">
+      <x:c r="A44" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:195">
+      <x:c r="A45" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:195">
+      <x:c r="A46" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:195">
+      <x:c r="A50" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:195">
+      <x:c r="A52" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:195">
+      <x:c r="A53" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:195">
+      <x:c r="A54" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:195">
+      <x:c r="A55" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:195">
+      <x:c r="A56" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:195">
+      <x:c r="A57" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:195">
+      <x:c r="A58" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:195">
+      <x:c r="A59" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:195">
+      <x:c r="A60" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:195">
+      <x:c r="A61" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:195">
+      <x:c r="A62" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:195">
+      <x:c r="A63" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:195">
+      <x:c r="A64" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:195">
+      <x:c r="A65" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:195">
+      <x:c r="A66" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:195">
+      <x:c r="A67" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:195">
+      <x:c r="A68" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:195">
+      <x:c r="A69" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:195">
+      <x:c r="A70" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:195">
+      <x:c r="A71" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:195">
+      <x:c r="A72" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:195">
+      <x:c r="A73" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:195">
+      <x:c r="A74" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:195">
+      <x:c r="A75" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:195">
+      <x:c r="A76" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:195">
+      <x:c r="A77" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:195">
+      <x:c r="A78" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:195">
+      <x:c r="A79" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:195">
+      <x:c r="A80" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:195">
+      <x:c r="A81" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:195">
+      <x:c r="A82" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:195">
+      <x:c r="A83" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:195">
+      <x:c r="A84" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:195">
+      <x:c r="A85" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:195">
+      <x:c r="A86" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:195">
+      <x:c r="A87" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:195">
+      <x:c r="A88" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:195">
+      <x:c r="A89" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:195">
+      <x:c r="A90" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:195">
+      <x:c r="A91" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:195">
+      <x:c r="A92" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:195">
+      <x:c r="A93" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:195">
+      <x:c r="A94" s="0" t="s">
         <x:v>203</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:193">
-      <x:c r="A17" s="0" t="s">
+    <x:row r="95" spans="1:195">
+      <x:c r="A95" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:195">
+      <x:c r="A96" s="0" t="s">
         <x:v>204</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:193">
-      <x:c r="A18" s="0" t="s">
-        <x:v>205</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:193">
-      <x:c r="A19" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:193">
-      <x:c r="A20" s="0" t="s">
+    <x:row r="97" spans="1:195">
+      <x:c r="A97" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:195">
+      <x:c r="A101" s="0" t="s">
         <x:v>207</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:193">
-      <x:c r="A21" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:193">
-      <x:c r="A22" s="0" t="s">
-        <x:v>208</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:193">
-      <x:c r="A23" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:193">
-      <x:c r="A24" s="0" t="s">
+    <x:row r="102" spans="1:195">
+      <x:c r="A102" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:195">
+      <x:c r="A103" s="0" t="s">
         <x:v>209</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:193">
-      <x:c r="A25" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:193">
-      <x:c r="A26" s="0" t="s">
+    <x:row r="104" spans="1:195">
+      <x:c r="A104" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:195">
+      <x:c r="A105" s="0" t="s">
         <x:v>210</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:193">
-      <x:c r="A27" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:193">
-      <x:c r="A28" s="0" t="s">
+    <x:row r="106" spans="1:195">
+      <x:c r="A106" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:195">
+      <x:c r="A107" s="0" t="s">
         <x:v>211</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:193">
-      <x:c r="A29" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:193">
-      <x:c r="A30" s="0" t="s">
+    <x:row r="108" spans="1:195">
+      <x:c r="A108" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:195">
+      <x:c r="A109" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:193">
-      <x:c r="A31" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:193">
-      <x:c r="A32" s="0" t="s">
-        <x:v>213</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:193">
-      <x:c r="A33" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:193">
-      <x:c r="A35" s="0" t="s">
+    <x:row r="110" spans="1:195">
+      <x:c r="A110" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:195">
+      <x:c r="A111" s="0" t="s">
         <x:v>214</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:193">
-      <x:c r="A36" s="0" t="s">
+    <x:row r="112" spans="1:195">
+      <x:c r="A112" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:195">
+      <x:c r="A113" s="0" t="s">
         <x:v>215</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:193">
-      <x:c r="A38" s="0" t="s">
-        <x:v>216</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:193">
-      <x:c r="A39" s="0" t="s">
-        <x:v>205</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:193">
-      <x:c r="A40" s="0" t="s">
-        <x:v>217</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:193">
-      <x:c r="A41" s="0" t="s">
-        <x:v>218</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:193">
-      <x:c r="A42" s="0" t="s">
-        <x:v>219</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:193">
-      <x:c r="A44" s="0" t="s">
-        <x:v>220</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:193">
-      <x:c r="A45" s="0" t="s">
-        <x:v>221</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:193">
-      <x:c r="A46" s="0" t="s">
-        <x:v>222</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:193">
-      <x:c r="A50" s="0" t="s">
-        <x:v>223</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:193">
-      <x:c r="A52" s="0" t="s">
-        <x:v>224</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:193">
-      <x:c r="A53" s="0" t="s">
-        <x:v>205</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:193">
-      <x:c r="A54" s="0" t="s">
-        <x:v>225</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:193">
-      <x:c r="A55" s="0" t="s">
+    <x:row r="114" spans="1:195">
+      <x:c r="A114" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:195">
+      <x:c r="A116" s="0" t="s">
         <x:v>207</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:193">
-      <x:c r="A56" s="0" t="s">
-        <x:v>225</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:193">
-      <x:c r="A57" s="0" t="s">
-        <x:v>208</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:193">
-      <x:c r="A58" s="0" t="s">
-        <x:v>226</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:193">
-      <x:c r="A59" s="0" t="s">
+    <x:row r="117" spans="1:195">
+      <x:c r="A117" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:195">
+      <x:c r="A118" s="0" t="s">
         <x:v>209</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:193">
-      <x:c r="A60" s="0" t="s">
-        <x:v>225</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61" spans="1:193">
-      <x:c r="A61" s="0" t="s">
+    <x:row r="119" spans="1:195">
+      <x:c r="A119" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:195">
+      <x:c r="A120" s="0" t="s">
         <x:v>210</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:193">
-      <x:c r="A62" s="0" t="s">
-        <x:v>227</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:193">
-      <x:c r="A63" s="0" t="s">
+    <x:row r="121" spans="1:195">
+      <x:c r="A121" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:195">
+      <x:c r="A122" s="0" t="s">
         <x:v>211</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:193">
-      <x:c r="A64" s="0" t="s">
-        <x:v>225</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="65" spans="1:193">
-      <x:c r="A65" s="0" t="s">
+    <x:row r="123" spans="1:195">
+      <x:c r="A123" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:195">
+      <x:c r="A124" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:193">
-      <x:c r="A66" s="0" t="s">
-        <x:v>227</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="67" spans="1:193">
-      <x:c r="A67" s="0" t="s">
-        <x:v>213</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="68" spans="1:193">
-      <x:c r="A68" s="0" t="s">
-        <x:v>227</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="69" spans="1:193">
-      <x:c r="A69" s="0" t="s">
-        <x:v>228</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="70" spans="1:193">
-      <x:c r="A70" s="0" t="s">
-        <x:v>205</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="1:193">
-      <x:c r="A71" s="0" t="s">
-        <x:v>229</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="1:193">
-      <x:c r="A72" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="73" spans="1:193">
-      <x:c r="A73" s="0" t="s">
-        <x:v>229</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="1:193">
-      <x:c r="A74" s="0" t="s">
-        <x:v>209</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:193">
-      <x:c r="A75" s="0" t="s">
-        <x:v>229</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76" spans="1:193">
-      <x:c r="A76" s="0" t="s">
-        <x:v>210</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="77" spans="1:193">
-      <x:c r="A77" s="0" t="s">
-        <x:v>229</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="78" spans="1:193">
-      <x:c r="A78" s="0" t="s">
-        <x:v>211</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="79" spans="1:193">
-      <x:c r="A79" s="0" t="s">
-        <x:v>230</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="80" spans="1:193">
-      <x:c r="A80" s="0" t="s">
-        <x:v>213</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="81" spans="1:193">
-      <x:c r="A81" s="0" t="s">
-        <x:v>231</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="82" spans="1:193">
-      <x:c r="A82" s="0" t="s">
-        <x:v>195</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="83" spans="1:193">
-      <x:c r="A83" s="0" t="s">
-        <x:v>232</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="84" spans="1:193">
-      <x:c r="A84" s="0" t="s">
-        <x:v>196</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="85" spans="1:193">
-      <x:c r="A85" s="0" t="s">
-        <x:v>232</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="86" spans="1:193">
-      <x:c r="A86" s="0" t="s">
-        <x:v>197</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="87" spans="1:193">
-      <x:c r="A87" s="0" t="s">
-        <x:v>232</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="88" spans="1:193">
-      <x:c r="A88" s="0" t="s">
-        <x:v>198</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="89" spans="1:193">
-      <x:c r="A89" s="0" t="s">
-        <x:v>232</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="90" spans="1:193">
-      <x:c r="A90" s="0" t="s">
-        <x:v>199</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="91" spans="1:193">
-      <x:c r="A91" s="0" t="s">
-        <x:v>232</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="92" spans="1:193">
-      <x:c r="A92" s="0" t="s">
-        <x:v>200</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="93" spans="1:193">
-      <x:c r="A93" s="0" t="s">
-        <x:v>233</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="94" spans="1:193">
-      <x:c r="A94" s="0" t="s">
-        <x:v>201</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="95" spans="1:193">
-      <x:c r="A95" s="0" t="s">
-        <x:v>232</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="96" spans="1:193">
-      <x:c r="A96" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="97" spans="1:193">
-      <x:c r="A97" s="0" t="s">
-        <x:v>232</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="101" spans="1:193">
-      <x:c r="A101" s="0" t="s">
-        <x:v>205</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="102" spans="1:193">
-      <x:c r="A102" s="0" t="s">
-        <x:v>234</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="103" spans="1:193">
-      <x:c r="A103" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="104" spans="1:193">
-      <x:c r="A104" s="0" t="s">
-        <x:v>234</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="105" spans="1:193">
-      <x:c r="A105" s="0" t="s">
-        <x:v>208</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="106" spans="1:193">
-      <x:c r="A106" s="0" t="s">
-        <x:v>234</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="107" spans="1:193">
-      <x:c r="A107" s="0" t="s">
-        <x:v>209</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="108" spans="1:193">
-      <x:c r="A108" s="0" t="s">
-        <x:v>234</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="109" spans="1:193">
-      <x:c r="A109" s="0" t="s">
-        <x:v>210</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="110" spans="1:193">
-      <x:c r="A110" s="0" t="s">
-        <x:v>234</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="111" spans="1:193">
-      <x:c r="A111" s="0" t="s">
-        <x:v>212</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="112" spans="1:193">
-      <x:c r="A112" s="0" t="s">
-        <x:v>234</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="113" spans="1:193">
-      <x:c r="A113" s="0" t="s">
-        <x:v>213</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="114" spans="1:193">
-      <x:c r="A114" s="0" t="s">
-        <x:v>234</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="116" spans="1:193">
-      <x:c r="A116" s="0" t="s">
-        <x:v>205</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="117" spans="1:193">
-      <x:c r="A117" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="118" spans="1:193">
-      <x:c r="A118" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="119" spans="1:193">
-      <x:c r="A119" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="120" spans="1:193">
-      <x:c r="A120" s="0" t="s">
-        <x:v>208</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="121" spans="1:193">
-      <x:c r="A121" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="122" spans="1:193">
-      <x:c r="A122" s="0" t="s">
-        <x:v>209</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="123" spans="1:193">
-      <x:c r="A123" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="124" spans="1:193">
-      <x:c r="A124" s="0" t="s">
-        <x:v>210</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="125" spans="1:193">
+    <x:row r="125" spans="1:195">
       <x:c r="A125" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="126" spans="1:193">
+        <x:v>237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:195">
       <x:c r="A126" s="0" t="s">
-        <x:v>212</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="127" spans="1:193">
+        <x:v>214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:195">
       <x:c r="A127" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="128" spans="1:193">
+        <x:v>237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:195">
       <x:c r="A128" s="0" t="s">
-        <x:v>213</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="129" spans="1:193">
+        <x:v>215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:195">
       <x:c r="A129" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="132" spans="1:193">
+        <x:v>237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:195">
       <x:c r="A132" s="0" t="s">
-        <x:v>236</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="133" spans="1:193">
+        <x:v>238</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:195">
       <x:c r="A133" s="0" t="s">
-        <x:v>237</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="135" spans="1:193">
+        <x:v>239</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:195">
       <x:c r="A135" s="0" t="s">
-        <x:v>238</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="136" spans="1:193">
+        <x:v>240</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:195">
       <x:c r="A136" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="A15:GK15"/>
+    <x:mergeCell ref="A15:GM15"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
